--- a/python/数科项目/模型/scorecards.xlsx
+++ b/python/数科项目/模型/scorecards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,10 @@
         <v>0.08614429229224266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9992693598028658</v>
+        <v>0.4080482575286108</v>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -496,10 +496,10 @@
         <v>0.5803960150367878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9992693598028658</v>
+        <v>0.4080482575286108</v>
       </c>
       <c r="E3" t="n">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -517,10 +517,10 @@
         <v>0.3652223883692582</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9992693598028658</v>
+        <v>0.4080482575286108</v>
       </c>
       <c r="E4" t="n">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +538,10 @@
         <v>0.1733964197785882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9992693598028658</v>
+        <v>0.4080482575286108</v>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -552,17 +552,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53.0~62.0</t>
+          <t>53.0~56.0</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2232225975308042</v>
+        <v>-0.03249388841732125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9992693598028658</v>
+        <v>0.4080482575286108</v>
       </c>
       <c r="E6" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>62.0~67.0</t>
+          <t>56.0~62.0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.7308513139747165</v>
+        <v>-0.3355757035569146</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9992693598028658</v>
+        <v>0.4080482575286108</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -594,17 +594,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>67.0~74.0</t>
+          <t>62.0~67.0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.056094635531076</v>
+        <v>-0.7308513139747165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9992693598028658</v>
+        <v>0.4080482575286108</v>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -615,17 +615,1571 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>67.0~69.0</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.372588489818786</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4080482575286108</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>年龄</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>69.0~74.0</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.9210088769013128</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4080482575286108</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>年龄</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>74.0~inf</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>-1.286479101662532</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.9992693598028658</v>
-      </c>
-      <c r="E9" t="n">
-        <v>63</v>
+      <c r="D11" t="n">
+        <v>0.4080482575286108</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>家属数量</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-inf~0.0</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.1600770888570194</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2655052235756972</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>家属数量</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.0~1.0</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.103363622818641</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2655052235756972</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>家属数量</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.0~2.0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2313943156654822</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2655052235756972</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>家属数量</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.0~5.0</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3345603632952632</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2655052235756972</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>家属数量</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5.0~6.0</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.018337177032766</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2655052235756972</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>家属数量</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6.0~inf</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2208609404652806</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2655052235756972</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-inf~600.0</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.5530404744362006</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1144.0~2300.0</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4583146337262898</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2300.0~2314.0</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.6072908362969179</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2314.0~4995.0</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2992619138373949</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4995.0~5177.0</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.07249645607219248</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5177.0~5300.0</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4272870474844795</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5300.0~6666.0</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.02933724636438957</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>600.0~1144.0</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1310231827375949</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>6666.0~9700.0</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.2232123024568268</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>月收入</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9700.0~inf</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4642385759495674</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2236629981484438</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-inf~0.0</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.05469389140905446</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.010584240840000004~0.19944517276000007</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.01325305988150896</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.0~0.010584240840000004</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.8162930454903401</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.19944517276000007~0.35851638216</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2183759189797162</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.35851638216~0.5083628206799999</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.008460888030367951</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.5083628206799999~0.71369049788</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3793068119209451</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E33" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.71369049788~4.0</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6326405588536653</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>123.0~639.5200000000041</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3195324679662144</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4.0~123.0</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.4930099113461189</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>负债比例</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>639.5200000000041~inf</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.2814307574034718</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.6523992404238761</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-inf~0.0</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.7982239915410034</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.040494719119999995~0.11318247440000002</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.275978243022861</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.0~0.040494719119999995</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.665934647913148</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.11318247440000002~0.22958469399999998</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.7978618149286243</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.22958469399999998~0.40224230104</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.4006723422027818</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.40224230104~0.6078043503199999</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1715021281129586</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.6078043503199999~0.7232714245200003</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5621359633480775</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.7232714245200003~0.90512174244</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9305575092220819</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E45" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.90512174244~0.9999999</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.188026642441486</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E46" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>可用额度比例</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.9999999~inf</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2.141407131094923</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5875180566975711</v>
+      </c>
+      <c r="E47" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-inf~0.0</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.31194525329084</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E48" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.0~1.0</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7768069994789812</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.0~2.0</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3686435775786332</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>14.0~15.0</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2007933774175283</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>15.0~inf</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.03451222610735204</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2.0~3.0</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1243158246025064</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3.0~5.0</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.02273652951059655</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5.0~7.0</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.1853923760443413</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7.0~8.0</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.3219735967639188</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>普通贷款数量</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>8.0~14.0</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.1205657409651368</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2195607279897203</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>不动产贷款数量</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-inf~0.0</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2220297869483822</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5152869067553734</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>不动产贷款数量</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.0~2.0</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.2176050540164273</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5152869067553734</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>不动产贷款数量</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>10.0~11.0</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-23.02585092994046</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5152869067553734</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-332</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>不动产贷款数量</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>11.0~inf</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1.602640621169366</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5152869067553734</v>
+      </c>
+      <c r="E61" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>不动产贷款数量</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2.0~3.0</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.07502340164899138</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5152869067553734</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>不动产贷款数量</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3.0~4.0</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.2679900808045431</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5152869067553734</v>
+      </c>
+      <c r="E63" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>不动产贷款数量</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4.0~5.0</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5582624012295251</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5152869067553734</v>
+      </c>
+      <c r="E64" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>不动产贷款数量</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5.0~10.0</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1.053060376095841</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5152869067553734</v>
+      </c>
+      <c r="E65" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>35-69天逾期次数</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-inf~0.0</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.5221968129318225</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5396086407588155</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>35-69天逾期次数</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.0~1.0</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9105826221637054</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5396086407588155</v>
+      </c>
+      <c r="E67" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>35-69天逾期次数</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.0~2.0</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1.635519061124118</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5396086407588155</v>
+      </c>
+      <c r="E68" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>35-69天逾期次数</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2.0~3.0</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2.042873933567605</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.5396086407588155</v>
+      </c>
+      <c r="E69" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>35-69天逾期次数</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3.0~5.0</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2.364474464830824</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5396086407588155</v>
+      </c>
+      <c r="E70" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>35-69天逾期次数</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5.0~inf</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2.659782476938618</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5396086407588155</v>
+      </c>
+      <c r="E71" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>60-89天逾期次数</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-inf~0.0</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.2745780572449179</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4046131550969743</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>60-89天逾期次数</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.0~1.0</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1.855555971183973</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4046131550969743</v>
+      </c>
+      <c r="E73" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>60-89天逾期次数</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1.0~2.0</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2.670166897416281</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.4046131550969743</v>
+      </c>
+      <c r="E74" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>60-89天逾期次数</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2.0~9.0</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>3.006672045552452</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.4046131550969743</v>
+      </c>
+      <c r="E75" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>60-89天逾期次数</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>9.0~inf</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>25.67446010627508</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.4046131550969743</v>
+      </c>
+      <c r="E76" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>高于90天逾期次数</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-inf~0.0</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.3759654728905378</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5264891934914464</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>高于90天逾期次数</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.0~1.0</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.974266611576869</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5264891934914464</v>
+      </c>
+      <c r="E78" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>高于90天逾期次数</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1.0~2.0</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2.639890725301702</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5264891934914464</v>
+      </c>
+      <c r="E79" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>高于90天逾期次数</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>11.0~inf</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1.955461995772158</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.5264891934914464</v>
+      </c>
+      <c r="E80" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>高于90天逾期次数</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2.0~3.0</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2.965346168838783</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.5264891934914464</v>
+      </c>
+      <c r="E81" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>高于90天逾期次数</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>3.0~6.0</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3.230530721787543</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.5264891934914464</v>
+      </c>
+      <c r="E82" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>高于90天逾期次数</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>6.0~11.0</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3.86500450065496</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.5264891934914464</v>
+      </c>
+      <c r="E83" t="n">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
